--- a/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_8.xlsx
+++ b/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_8.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Word Frequency" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,246 +440,5215 @@
           <t>result</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>processed_result</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>不断在聊天框复制粘贴表情，复制表情到30 个以上时会有一定概率应用出现闪退。</t>
+          <t>在这张图片中，用户的头像和用户名已经被更新，但在其他页面上显示的头像和用户名与之前不一致。这可能导致用户混淆或误解其个人资料的状态，从而影响用户体验。</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>图片 头像 用户名 更新 页面 头像 用户名 之前 一致 混淆 误解 个人资料 状态</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>在群聊中，用户无法收藏发送的表情，并且无法通过长按将本地表情保存到收藏夹。此外，静态表情列表中也不显示已收藏的本地表情。</t>
+          <t>在进入群聊管理页面时，无法找到“群里昵称管理”的相关选项，导致用户无法进行昵称管理的操作。</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>进入 群聊 管理 页面 无法 找到 群里 昵称 管理 相关 选项 无法 进行 昵称 管理</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>聊天框内单个复制表情时，当数量达到一定数值时，软件会闪退</t>
+          <t>在个人聊天或群聊过程中，当用户A使用虚拟机与用户B通过手机进行交流时，出现了头像显示错误的bug。</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>个人 聊天 群聊 过程 A 虚拟机 B 手机 进行 交流 出现 头像 错误</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>该软件的表情功能存在明显的限制。用户无法添加或自定义他们想要的表情包，只能使用预设的有限表情。此外，没有明确的途径或按钮来引导用户进行新表情包的添加或更新。这限制了用户的个性化体验和表达多样性。</t>
+          <t>该应用程序的头像和昵称显示功能似乎存在问题。在屏幕截图中，用户的头像和昵称没有正确展示，导致用户信息无法被准确识别。这可能是由于软件内部的某种错误或配置问题导致的。</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>应用程序 头像 昵称 屏幕 截图 头像 昵称 没有 正确 展示 信息 无法 准确 识别 软件 内部 某种 错误 配置</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>在输入法中输入“笑哭”表情和在表情列表中点击“笑哭”表情的结果不一致，导致输入法中的表情无法被保存。这是一个明显的功能缺陷，且该缺陷每次都会出现。</t>
+          <t>长按用户头像，可@该用户，但是对方未收到特别的提醒</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>长 头像 @ 未 收到 特别 提醒</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>描述：在Android系统电脑上，当尝试进入群聊并使用表情按钮时，软件无法发送任何表情。点击表情区域会导致返回编辑模式，导致用户无法正常发送表情。</t>
+          <t>进入“我的群组”后，点击“我的所有群”，显示有“三剑客”群。进入该群聊天界面，点击多人图标进入群信息设置，更改头像后保存。返回到“我的群组”，在“最近聊天”中可以看到头像已更新，但在“我的所有群”中，“三剑客”的头像仍然是旧的，与更改后的头像不符。</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>进入 群组 点击 群 三剑客 群 进入 该群 聊天 界面 点击 多人 图标 进入 群 信息 设置 更改 头像 保存 返回 群组 最近 聊天 看到 头像 更新 群 三剑客 头像 仍然 旧 更改 头像 不符</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>复制表情后在聊天框中粘贴无法正常显示为表情</t>
+          <t>该软件在用户修改昵称后，当用户成功加入一个群组并被群主接受时，聊天页面显示的"加入了群聊"提示信息中仍然展示的是用户修改昵称之前的旧昵称。这可能导致用户的混淆，因为他们可能会看到与他们当前昵称不符的提示信息。</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>修改 昵称 成功 加入 群组 群主 接受 聊天 页面 " 加入 群聊 " 提示信息 仍然 展示 修改 昵称 之前 旧 昵称 混淆 看到 当前 昵称 不符 提示信息</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>该图像显示了一个手机屏幕截图，其中包含一个群公告，该公告由一系列黄色的表情符号组成。表情符号包括各种面部特征，如眼睛、鼻子和嘴巴。这些表情符号被排列成多行，覆盖了整个屏幕。然而，当尝试阅读群公告时，内容无法显示，取而代之的是系统自带的默认表情。这似乎是一个显示错误或故障，导致原本的文本内容无法显示，而只展示了系统默认的表情。</t>
+          <t>在个人主页的个人设置中，当用户尝试修改其昵称时，系统并未正确更新昵称。尽管在个人主页的显示中可以看到已更改的昵称，但在其他页面或通过其他人查看此用户的信息时，所显示的昵称仍然是旧的，没有反映用户的新昵称更改。</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>个人主页 个人 设置 修改 昵称 系统 并未 正确 更新 昵称 个人主页 看到 更改 昵称 页面 其他人 查看 信息 昵称 仍然 旧 没有 反映 新 昵称 更改</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>表情发送:用键盘上的表情发现与填写不符合</t>
+          <t>在群聊页面中，当点击某一好友的用户A头像以查看其个人信息时，发现用户A在群聊里的头像昵称与其个人主页里的不一致。这可能表明群聊中的用户信息显示存在某种“匿名”功能或错误，导致用户的公开信息与他们的真实资料不匹配。</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>群聊 页面 点击 某一 好友 A 头像 查看 个人信息 发现 A 群聊 里 头像 昵称 个人主页 里 一致 表明 群聊 信息 某种 匿名 错误 公开 信息 真实 资料 匹配</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>在发送过多的大表情之后，无论是否为群主都会被禁言，而且禁言的显示一直不会消失，除非退出重进</t>
+          <t>昵称不一致，用户已改昵称与头像，但群里其他用户只能看到默认昵称与头像。</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>昵称 一致 已改 昵称 头像 群里 只能 看到 默认 昵称 头像</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>聊天表情比较少， 只有系统自带的四种， 没有自己可以添加的功能。 对于周杰伦的年轻粉丝来说，不是一个好消息。</t>
+          <t>群组成员不能修改群名称和群头像</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>群 组成员 不能 修改 群 名称 群 头像</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>在Remix OS 5.1版本的X86设备上，用户无法通过系统发送表情。此问题可能与操作系统的兼容性或软件更新有关，导致表情功能无法正常使用。</t>
+          <t>在群组界面中，更改昵称的功能似乎没有成功更新。当用户更改昵称后，该昵称在群组列表中并未实时更新，仍显示为之前的昵称。这可能导致用户无法即时看到自己最新的昵称变更。</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>群组 界面 更改 昵称 没有 成功 更新 更改 昵称 昵称 群组 列表 并未 实时 更新 之前 昵称 无法 即时 看到 最新 昵称 变更</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>remixOS基于安卓的电脑平台使用该软件，无法发送表情</t>
+          <t>该软件存在一个显示问题，当用户更改其昵称后，在群聊和好友列表中无法正确更新显示新昵称。例如，用户“景威”将其昵称更改为“东大村”，但在群聊和好友列表中仍然显示为“景威”。</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>更改 昵称 群聊 好友 列表 无法 正确 更新 新 昵称 景威 昵称 更 改为 东大 村 群聊 好友 列表 仍然 景威</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>多次发送大表情会被禁言，而且只能重登才能解除</t>
+          <t>在创建群聊后，尽管已经修改了昵称，但群主栏仍然显示为之前的昵称。这可能表明群聊的群主设置没有正确更新，或者软件中存在一个bug，导致昵称更改没有被保存或显示。</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>创建 群聊 修改 昵称 群主 栏 仍然 之前 昵称 表明 群聊 群主 设置 没有 正确 更新 软件 昵称 更改 没有 保存</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>输入框右侧表情头像被掩盖了部分，强迫症的人看了不舒服，需要改善。</t>
+          <t>问题描述：
+该软件在执行“群组设置”中的“添加群成员”功能时，出现了一个明显的bug。预期结果是显示所有好友并展示他们的昵称，但实际结果却是显示了测试者的所有好友（有些只显示昵称）。这不符合预期的功能需求，可能导致用户在管理群组时遇到困扰。</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 执行 群组 设置 添加 群 成员 出现 明显 预期 好友 展示 昵称 却是 测试者 好友 昵称 符合 预期 需求 管理 群组 遇到 困扰</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>在软件测试过程中，用户报告了一个表情复制粘贴的问题。当用户尝试复制一个表情并在聊天框中粘贴时，该表情并未正确显示，而是展示为一串代码。这可能表明了软件在处理表情的复制和粘贴功能时存在缺陷，导致预期的表情无法正确呈现给用户。</t>
+          <t>该软件界面显示了一个群组的设置选项，包括添加群成员的功能。然而，当用户尝试更改或设置群头像时，系统似乎没有响应。具体来说，“群头像”和“群公告”部分为空，且没有任何可操作的按钮或选项来上传或更改群头像。这可能表明在尝试更新或修改群组图像时存在技术故障或设计缺陷。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>界面显示 群组 设置 选项 包括 添加 群 成员 更改 设置 群 头像 系统 没有响应 具体来说 群 头像 群 公告 部分 为空 没有 按钮 选项 上传 更改 群 头像 表明 更新 修改 群组 技术 故障 设计 缺陷</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>在聊天应用中，用户尝试复制并粘贴表情符号时，系统错误地呈现了默认的、非特定应用内的表情样式。这种显示与预期的应用内表情样式不符，导致用户体验不一致。</t>
+          <t>1.重现步骤
+     (1)进入群聊;
+     (2)点击进入一个群。
+    (3)群组成员退出一个。
+2.期望结果
+      群助手提示。并且群聊头像中的那位退出的头像也应该去掉。
+3.实际结果
+    群助手提示。但群聊头像却没变。</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>. 重现 
+           ( ) 进入 群聊 ; 
+           ( ) 点击 进入 群 
+         ( ) 群 组成员 退出 
+ . 期望 
+             群 助手 提示 群聊 头像 那位 退出 头像 应该 去掉 
+ . 
+         群 助手 提示 群聊 头像 没变</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>该软件界面中的表情选择功能似乎存在故障，导致用户在尝试复制并粘贴表情时遇到问题。此外，聊天框中显示的代码格式可能对用户造成困扰，特别是当他们需要编辑或修改表情时。</t>
+          <t>该应用程序在群设置界面中存在一个bug。当用户进入自己所在的群并尝试进行操作4后，发现无法找到修改群昵称的选项。此问题导致用户不能在群内修改自己的昵称。</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>应用程序 群 设置 界面 进入 群 进行 发现 无法 找到 修改 群 昵称 选项 不能 群内 修改 昵称</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>在群公告中，当群主尝试使用表情时，聊天界面无法正确显示这些表情，只展示出对应的文字内容。尽管群组的设置允许显示表情，但在实际的聊天记录中，这些表情被错误地忽略了。</t>
+          <t>在更改头像后，该应用在群聊页面中未能实时更新用户的头像。即使用户已经成功更改了他们的头像，但在群聊界面中，他们的头像仍然是旧的，没有反映最新的更改。</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>更改 头像 应用 群聊 页面 未能 实时 更新 头像 成功 更改 头像 群聊 界面 头像 仍然 旧 没有 反映 最新 更改</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>表情好难看啊！建议更新下表情包</t>
+          <t>该界面中，用户的个人昵称在进入好友主页后发生了不一致的变化。在第一次更改昵称之后，昵称显示存在明显的问题或错误，这可能表明系统在处理昵称更新时出现了混乱或不一致性，导致用户无法准确识别其个人信息。</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>界面 个人 昵称 进入 好友 主页 发生 一致 变化 第一次 更改 昵称 之后 昵称 明显 错误 表明 系统 处理 昵称 更新 出现 混乱 不一致性 无法 准确 识别 个人信息</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>在输入输入法表情时，显示结果与预期不符。</t>
+          <t>问题描述：在更改群头像后，该群在我的孙列表中的头像并没有更新为新的头像，仍然显示的是原来的头像。而在群的界面中，头像已经成功更新为新设置的头像。</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>更改 群 头像 该群 孙 列表 头像 没有 更新 新 头像 仍然 原来 头像 群 界面 头像 成功 更新 新 设置 头像</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>聊天框输入的表情上限太低</t>
+          <t>改了头像之后显示成功，但是在群聊里不显示改过的头像</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>改了 头像 之后 成功 群聊 里 改过 头像</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>表情在复制到聊天框后，无法正常显示，而是变为了一系列数字和符号。</t>
+          <t>选择群组里面的一个成员点击头像会直接进入与他的聊天界面  ，不能有更多操作， 比如看到主页啊  各种介绍啊</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>选择 群组 里面 成员 点击 头像 进入 聊天 界面     不能 更   看到 主页     介绍</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>该表情在复制时未能正确显示其原始状态。</t>
+          <t>进入主界面后，尝试修改昵称为“belinda”，但在进入群聊的设置页查看时，发现其昵称仍然是之前未修改的默认昵称，与预期不符。</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>进入 主 界面 修改 昵称 belinda 进入 群聊 设置 页 查看 发现 昵称 仍然 之前 未修改 默认 昵称 预期 不符</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>群公告为表情无法被群成员看到</t>
+          <t>在软件界面中，用户的头像显示为彩色的花朵图案，与正常的头像显示不符。这可能表明头像加载或显示过程中出现了错误或异常，导致头像显示异常。</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>软件 界面 头像 彩色 花朵 图案 正常 头像 不符 表明 头像 加载 过程 出现 错误 异常 头像 异常</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>这个bug是在复制表情后，聊天框内显示为系统自带表情。从图片描述中可以看出，用户试图复制一组特定的表情到聊天框中，但结果却是系统自带的默认表情。这可能表明该应用在处理复制和粘贴功能时存在错误，导致无法正确显示用户选择的表情。</t>
+          <t>在群聊中点击一个人的头像会直接进入到私聊中，没有更多的操作， 不能看到主页啊， 介绍啊什么的。</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>群聊 点击 头像 进入 私聊 没有 更   不能 看到 主页   介绍</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>加入群组－＞进入群组聊天－＞在群组聊天框里键入搜狗输入法自带表情－＞点击发送－＞显示的表情与输入框表情不同  附截图 输入框与已发送的表情为同一表情 而显示结果不同
-附截图</t>
+          <t>该软件在处理用户尝试将动态图像设置为头像时遇到了问题，导致系统崩溃。</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>处理 动态 设置 头像 遇到 导致系统 崩溃</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>聊天记录表情与原表情不符
-加入群组－＞进入群组聊天－＞在群组聊天框里键入搜狗输入法自带表情－＞点击发送－＞显示的表情与群组设置－＞聊天记录里的同一表情显示不同
-附截图 截图中已圈出显示不相同的同一个表情</t>
+          <t>自己更换头像后，自己显示的头像更改成功，但是别人搜索自己的头像并没有改变，需要多手机查看。</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>更换 头像 头像 更改 成功 搜索 头像 没有 改变 手机 查看</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>该图像展示了一个手机应用界面，其中用户正在与某个群组进行聊天。在聊天记录中，用户尝试发送了一个表情符号，但显示的表情与他们选择的表情不符。具体来说，用户在输入栏选择了某种表情，但在聊天记录中展示的却是另一种完全不同的表情。这种不一致可能是由于应用内部的某些错误或设置导致的，导致消息发送时的表情处理出现了问题。</t>
+          <t>问题描述：当使用QQ账号登录此APP应用时，系统会默认使用QQ的昵称和头像。但在本情况下，APP系统设置了昵称长度限制，不得超过8位。然而，如果QQ昵称过长，首次登录后，该长名称会被错误地写入到系统设置中，导致用户无法正确显示其昵称或头像，这可能会给用户带来不便和混淆。</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>QQ 账号 登录 APP 应用 系统 默认 QQ 昵称 头像 情况 APP 系统 设置 昵称 长度 限制 超过 位 QQ 昵称 过长 首次 登录 该长 名称 错误 写入 系统 设置 无法 正确 昵称 头像 带来 不便 混淆</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>通过表情查找群聊名称，不能查找匹配到对应的表情，而是会出现许多不与查找表情相同的群聊</t>
+          <t>在红米NOTO的系统中，当用户在登录后点击加号进入个人设置，并尝试更改头像时，系统出现了崩溃的问题。具体地，用户选择更改头像后，点击相册选择功能，选择了系统自带的相册。在进入一个包含多个相册的列表后，用户等待约5秒钟，然后尝试点击系统的返回键。然而，系统并未如预期那样返回到上一界面，而是直接崩溃了。这可能表明系统在处理某些特定操作或等待时间过长时存在稳定性问题。</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>红米 NOTO 系统 登录 点击 加号 进入 个人 设置 更改 头像 系统 出现 崩溃 具体 选择 更改 头像 点击 相册 选择 选择 系统 自带 相册 进入 包含 多个 相册 列表 等待 约 秒钟 点击 系统 返回 键 系统 并未 预期 返回 界面 崩溃 表明 系统 处理 特定 等待时间 过长 稳定性</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>该软件在创建群组时，允许用户使用表情作为群名称。然而，由于手机输入法自带的表情不一致，这导致当用户尝试通过关键字搜索来查找群组时，使用特定表情作为关键词进行搜索无法找到相应的群组。</t>
+          <t>这是一个软件测试报告的问题描述。根据提供的信息，用户在尝试修改群聊昵称时遇到了问题。实际结果与预期不符，显示的昵称是第一次修改后的昵称，而不是用户最近修改的昵称。这可能导致用户的体验不佳，因为他们无法看到最新的昵称更新。这可能是由于软件内部的缓存或同步问题导致的，需要在后续的测试和开发中予以解决。</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>软件测试 报告 提供 信息 修改 群聊 昵称 遇到 预期 不符 昵称 第一次 修改 昵称 最近 修改 昵称 不佳 无法 看到 最新 昵称 更新 软件 内部 缓存 同步 后续 开发 予以 解决</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>该软件在发送表情时存在限制，用户只能输入最多四行的表情符号。当尝试输入更多行时，系统并未提供相应的功能或反馈，导致无法使用更多行来输入表情。</t>
+          <t>在添加成员的过程中，当用户点击右侧的选中框以选择头像时，会出现一个视觉上的bug。具体来说，所选头像会短暂闪烁或产生不自然的视觉效果，这可能会干扰用户的体验，导致他们对操作界面的信任度下降。</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>添加 成员 过程 点击 右侧 选中 框以 选择 头像 出现 视觉 具体来说 选 头像 短暂 闪烁 产生 自然 视觉效果 干扰 操作界面 信任度 下降</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>表情在文本框上的时候发送了变化。如果用户忘记了刚刚点击的是什么表情，而表情在文本框上也变得难以辨识。那么用户就要删除文本框上的表情进行重新选择。</t>
+          <t>在测试过程中，发现当进入聊天界面时，部分用户的头像加载速度明显滞后。特别地，同一用户的头像在同一时间点显示了不同的状态，这可能表明系统在处理头像更新或加载时出现了问题。这种不一致的头像加载情况可能会对用户体验产生负面影响，特别是在用户期望看到最新的联系人信息时。</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>过程 发现 进入 聊天 界面 部分 头像 加载 速度 明显 滞后 特别 同一 头像 同一时间 点 不同 状态 表明 系统 处理 头像 更新 加载 出现 一致 头像 加载 情况 产生 负面影响 特别 期望 看到 最新 联系人 信息</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>该软件在处理表情输入时存在缺陷。用户尝试发送一组表情，但在这些表情被完全输入并准备发送之前，它们已经出现在了历史表情记录中。这导致用户感觉体验不佳，且这个问题是必现的，虽然其严重程度较轻，但仍然对用户体验造成了负面影响。</t>
-        </is>
+          <t>该软件中存在一个显示问题，用户在点击群组成员头像并进入其个人页面后，尽管成员的信息已被修改，但在群组界面中并未实时更新。此外，无论用户如何刷新页面，成员的默认头像和名称都无法正确显示为已更改的内容。</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>点击 群 组成员 头像 进入 个人 页面 成员 信息 修改 群组 界面 并未 实时 更新 刷新 页面 成员 默认 头像 名称 无法 正确 更改 内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>该软件在多人聊天中添加成员时，点击某个好友会导致头像缓存刷新。在刷新过程中，用户可能会看到初始的头像，而不是他们当前的头像。这个问题是必然发生的，每次点击好友时都可能触发这一现象。</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>聊天 添加 成员 点击 好友 头像 缓存 刷新 刷新 过程 看到 初始 头像 当前 头像 必然 发生 每次 点击 好友 触发 这一 现象</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>在执行2时，被选择用户的头像闪现曾经用过的头像并快速恢复目前的头像。</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>执行 选择 头像 闪现 曾经 用过 头像 快速 恢复 目前 头像</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>该软件在用户更新个人头像或名称后，只在其个人主页中反映这些更改，而在群组界面中仍然显示的是用户最初登录时的头像和名称。这意味着用户无法立即在群组中看到他们最新的资料更新。</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>更新 个人头像 名称 个人主页 反映 更改 群组 界面 仍然 最初 登录 头像 名称 意味着 无法 立即 群组 看到 最新 资料 更新</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>在登录应用软件后，用户选择使用QQ账号登录。出于方便他人搜索的考虑，该用户决定修改其昵称。然而，令人困惑的是，尽管用户已经成功修改了昵称，但在群聊中，他们的显示昵称并没有更新为新设置的昵称，仍然保持为旧的昵称。这可能导致了用户在群聊中的不一致展示和潜在的混淆。</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>登录 应用软件 选择 QQ 账号 登录 方便 搜索 考虑 决定 修改 昵称 令人困惑 成功 修改 昵称 群聊 昵称 没有 更新 新 设置 昵称 仍然 保持 旧 昵称 群聊 一致 展示 潜在 混淆</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>修改头像后，在群聊消息中的头像显示延迟。</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>修改 头像 群聊 消息 头像 延迟</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>该软件在选择好友功能中存在bug。当用户尝试从列表中选择好友时，其他在列表中的好友的头像会突然闪烁并变为一个相同的头像，这可能表明系统正在加载或更新这些头像。然后，头像会恢复正常显示。这种闪烁现象可能是由于软件内部的某些错误或不稳定造成的，导致头像信息未能正确显示给用户。</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>选择 好友 列表 选择 好友 列表 好友 头像 突然 闪烁 变为 相同 头像 表明 系统 正在 加载 更新 头像 头像 恢复正常 闪烁 现象 软件 内部 错误 稳定 造成 头像 信息 未能 正确</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>登录进入之后，想要修改用户名密码，头像等信息，一直找不到选项在哪，找了好久才发现右上角的加号里面，有个人设置，不人性化，影响用户体验</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>登录 进入 之后 想要 修改 用户名 密码 头像 信息 一直 找 不到 选项 找 好久 发现 右上角 加号 里面 个人 设置 人性化</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>这个软件测试bug涉及用户私聊和群聊界面的显示问题。在用户私聊时，界面仅展示了头像和聊天框，这可能不符合用户的使用习惯或期望，导致用户体验不佳。另一方面，在群聊中出现了不一致的显示情况，有的版本只显示头像和聊天框，而有的版本则额外显示了昵称，这种不一致性可能会让用户感到困惑，影响他们对软件的整体评价。尽管这个bug的影响可能不大，但仍然值得注意并加以修复，以提升用户对软件的信任和满意度。</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>软件测试 涉及 私聊 群聊 界面 私聊 界面 仅 展示 头像 聊天 框 符合 习惯 期望 不佳 群聊 出现 一致 情况 版本 头像 聊天 框 版本 额外 昵称 不一致性 感到 困惑 软件 整体 评价 仍然 值得注意 修复 提升 软件 信任 满意度</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>群聊中点击群资料发现群主名称与昵称不符</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>群聊 点击 群 资料 发现 群主 名称 昵称 不符</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>该应用的“好友消息助手”功能中，用户界面显示异常，头像的大小与整体界面设计不协调。具体来说，某些头像比其他头像大得多，这破坏了用户界面的整体性和美观性。这种不一致性可能会引起用户的不满和困惑，从而影响他们的使用体验。</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>应用 好友 消息 助手 用户界面 异常 头像 大小 整体 界面设计 协调 具体来说 头像 头像 大得多 破坏 用户界面 整体性 美观 性 不一致性 引起 不满 困惑</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>在消息盒子的“最新”部分查看用户“杰迷吧”发表的帖子时，发现显示的用户头像与其实际设置的头像不符。当返回到“最新”查看时，该用户的头像发生了改变，不再是之前显示的默认头像。</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>消息 盒子 最新 部分 查看 杰迷 发表 帖子 发现 头像 设置 头像 不符 返回 最新 查看 头像 发生 改变 不再 之前 默认 头像</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>在新建群组的过程中，当用户尝试快速点击头像以添加成员时，系统出现了持续的闪烁现象。这种闪烁可能是由于某种软件冲突或者响应延迟导致的，使得用户界面无法正常、稳定地显示或处理头像信息。此问题可能会影响用户的使用体验，尤其是当他们试图迅速操作或添加成员到群组时。</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>新建 群组 过程 快速 点击 头像 添加 成员 系统 出现 持续 闪烁 现象 闪烁 某种 软件 冲突 响应 延迟 用户界面 无法 正常 稳定 处理 头像 信息 尤其 试图 迅速 添加 成员 群组</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>该软件在用户修改昵称后，并未实时更新加好友界面中显示的昵称。当用户尝试添加新昵称的好友时，系统仍然展示的是用户最初注册时的默认昵称，而不是他们所选择的新昵称。这可能导致好友无法正确识别当前用户，从而影响软件的用户交互体验。</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>修改 昵称 并未 实时 更新 加 好友 界面 昵称 添加 新 昵称 好友 系统 仍然 展示 最初 注册 默认 昵称 选择 新 昵称 好友 无法 正确 识别 当前 软件 交互</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>在发起群聊并选择联系人进行勾选后，当尝试取消某个联系人的勾选时，该联系人的头像会异常地先闪跳到默认的其他头像再回到原本的头像。此外，如果首先选中了多位联系人，然后再取消其中一位的勾选，其他已选中的联系人的头像也会出现异常变化。这与预期结果不符，因为预期中取消勾选时应该直接取消选中，而不会出现头像的异常闪跳。</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>发起 群聊 选择 联系人 进行 勾选后 取消 联系人 勾 选时 联系人 头像 异常 地先 闪 跳 默认 头像 回到 原本 头像 选中 多位 联系人 取消 一位 勾选 选中 联系人 头像 出现异常 变化 预期 不符 预期 取消 勾选时 应该 取消 选中 不会 出现 头像 异常 闪 跳</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>该软件在处理个人昵称时存在bug。当用户通过第三方登录后，其昵称不仅超出了预设的字数限制，而且特殊符号也被允许使用，这可能导致昵称显示不正确或不符合平台的规定格式。</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>处理 个人 昵称 第三方 登录 昵称 超出 预设 字数 限制 特殊符号 允许 昵称 正确 符合 平台 规定 格式</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>该软件在尝试更改头像后，未能完全更新用户形象。尽管在个人信息页面显示了新的头像，但聊天界面中的头像并未同步更新，仍然保留着旧的图像。这导致了视觉上的不一致，可能会给用户带来混淆，影响用户体验。</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>更改 头像 未能 完全 更新 形象 个人信息 页面 新 头像 聊天 界面 头像 并未 同步 更新 仍然 保留 旧 视觉 一致 带来 混淆</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>该软件在更改头像功能中存在bug。用户无法选择除默认形状外的其他形状作为他们的头像，同时，头像选择框的大小也不能调整，既不能放大也不能缩小。</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>更改 头像 无法 选择 默认 形状 外 形状 头像 头像 选择 框 大小 不能 调整 不能 放大 不能 缩小</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>该软件在用户试图添加群组成员到群聊时出现技术故障，导致当用户点击一个群成员的头像时，头像会出现短暂的闪烁。这可能表明应用程序在处理图像显示或用户交互方面存在问题，需要进一步的调试和修复。</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>试图 添加 群 组成员 群聊 出现 技术 故障 点击 群 成员 头像 头像 出现 短暂 闪烁 表明 应用程序 处理 交互 方面 进一步 调试 修复</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>在群组设置页面中，当用户点击更改头像并选择手机相册时，系统错误地提示用户不能选择多张图片。</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>群组 设置 页面 点击 更改 头像 选择 手机 相册 系统 错误 提示 不能 选择 张 图片</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>创建的群组可以重名，感觉很不好，使得用户体验很不好，因为无法明确分清到底是哪个群，最好除了群头像不同，还有其他明确标识</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>创建 群组 重名 感觉 不好 不好 无法 明确 分清 到底 群 最好 群 头像 不同 明确 标识</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>在这张图片中，显示了一个联系人界面。根据问题描述，当好友改名后，最近联系人、好友列表和对话框中的昵称没有更新，仍然显示为改名前的昵称。只有在其个人主页中才能看到新的昵称。这可能表明该联系人软件存在一个bug，即在好友改名后的更新信息同步存在延迟或错误，导致在不同界面显示的昵称不一致。</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>图片 联系人 界面 好友 改名 最近 联系人 好友 列表 对话框 昵称 没有 更新 仍然 改名 前 昵称 个人主页 看到 新 昵称 表明 联系人 软件 好友 改名 更新 信息 同步 延迟 错误 不同 界面显示 昵称 一致</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>更换头像后，在聊天界面不会改变，还是原来的。</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>更换 头像 聊天 界面 不会 改变 原来</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>添加成员时，所有已经选取的头像会闪一下，能看到闪一下，但是很快，来不及截图</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>添加 成员 选取 头像 闪 一下 看到 闪 一下 很快 来不及 截图</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>该软件在用户更改昵称后，聊天界面显示的昵称与个人资料界面显示的昵称不一致。</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>更改 昵称 聊天 界面显示 昵称 个人资料 界面显示 昵称 一致</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>问题描述：在更改用户昵称时，“+”功能按钮应被替换为设置“*”按钮，因为这种设计可能会造成用户的混淆或误解。</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>更改 昵称 + 按钮 应 替换 设置 * 按钮 设计 造成 混淆 误解</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>这是一个显示bug，用户的昵称在修改后并未更新为新输入的昵称，而仍然保留为其之前的昵称。</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>昵称 修改 并未 更新 新 输入 昵称 仍然 保留 之前 昵称</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>在选择联系人的界面中，底部的被选栏应该展示已选中用户的独特头像。然而，在进行一系列的测试后，发现这个功能存在bug，因为多次操作后仍只能显示默认的头像，而不是被选中用户的个性化头像。</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>选择 联系人 界面 底部 选栏 应该 展示 选中 独特 头像 进行 一系列 发现 多次 只能 默认 头像 选中 个性化 头像</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>我想拉一个我知道昵称的小伙伴入群，发现有人和他同名，因而无法分辨哪个是他。想看该用户的详细信息都不行，拉错人就比较尴尬了。</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>想 拉 知道 昵称 小伙伴 入群 发现 有人 同名 无法 分辨 想 详细信息 不行 拉错 比较 尴尬</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>这个bug描述了一个软件功能的问题：当用户尝试修改他们的昵称后，系统并没有正确地更新显示的昵称。在用户界面中，尽管用户已经更改了他们的昵称，但在聊天窗口或主页上，他们的名字仍然显示为旧的昵称，这导致了用户体验的不一致和困扰。</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>软件 修改 昵称 系统 没有 正确 更新 昵称 用户界面 更改 昵称 聊天 窗口 主页 名字 仍然 旧 昵称 一致 困扰</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>每当在好友--聊天界面单机进入一个群之后在点击右上角显示群组设置时会有一小段缓存时间之后再返回到好友聊天界面（连续按2下后退）后会发现群头像由初始头像加载到目前使用的头像，时间间隔很短 。如果关闭数据网再进行如上操作之后加载头像的时间间隔会明显提高。
+也就是说经过缓存刷新操作之后的再观察群头像会有一段缓存刷新间隔能看到初始头像</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>好友 -- 聊天 界面 单机 进入 群 之后 点击 右上角 群组 设置 时会 一小 段 缓存 时间 之后 返回 好友 聊天 界面 连续 后退 发现 群 头像 初始 头像 加载 目前 头像 时间 间隔 短   关闭 数据网 进行 之后 加载 头像 时间 间隔 明显提高 
+ 也就是说 缓存 刷新 之后 观察 群 头像 一段 缓存 刷新 间隔 看到 初始 头像</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>该软件存在一个显示问题，具体表现为用户在更改头像后，其新头像并未在群聊天界面中更新或展示。这导致其他用户无法看到该用户的最新头像，从而造成了用户体验上的困扰和沟通障碍。</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>具体表现 更改 头像 其新 头像 并未 群 聊天 界面 更新 展示 无法 看到 最新 头像 造成 困扰 沟通 障碍</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>该软件的群组显示功能存在一致性问题。在外部查看时，群头像展示的是最新的更新后的头像，但当用户点击进入群组后，所显示的群成员头像却是未更新的老头像，这与用户期望看到的更新后的头像不符。</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>群组 一致性 外部 查看 群 头像 展示 最新 更新 头像 点击 进入 群组 群 成员 头像 却是 未 更新 老头 期望 看到 更新 头像 不符</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>修改头像，签名，个人设置难找，新人几乎不能发现</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>修改 头像 签名 个人 设置 难 找 新人 几乎 不能 发现</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>在添加用户的过程中，当用户被选中后，底部的已选列表只显示了部分选中用户的头像。</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>添加 过程 选中 底部 已选 列表 部分 选中 头像</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B435"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>头像</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>更改</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>聊天</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>联系人</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>最新</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>选中</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>旧</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>加载</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>闪烁</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>个人主页</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>缓存</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>刷新</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>主页</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>取消</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>组成员</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>闪</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>实时</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>相册</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>改名</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>困扰</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>间隔</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>改变</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>框</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>同步</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>崩溃</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>初始</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>延迟</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>找</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>助手</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>不一致性</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>私聊</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>里</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>某种</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>个人信息</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>最近</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>资料</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>内部</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>用户名</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>更换</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>账号</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>app</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>群里</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>最初</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>目前</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>三剑客</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>该群</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>找到</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>形状</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>介绍</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>里面</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>想</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>短暂</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>保留</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>软件测试</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>不好</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>个人资料</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>不会</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>一下</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>加号</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>跳</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>过长</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>底部</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>快速</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>交互</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>原来</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>故障</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>技术</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>右上角</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>版本</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>稳定</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>却是</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>景威</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>修复</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>大小</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>产生</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>变化</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>第一次</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>保存</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>迅速</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>界面设计</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>超出</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>勾选后</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>大得多</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>发起</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>预设</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>字数</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>协调</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>特殊符号</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>注册</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>平台</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>破坏</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>规定</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>格式</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>响应</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>完全</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>加</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>形象</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>持续</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>整体性</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>第三方</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>回到</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>不再</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>地先</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>帖子</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>选时</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>发表</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>杰迷</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>盒子</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>冲突</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>勾</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>尤其</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>多位</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>一位</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>勾选</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>引起</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>出现异常</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>性</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>勾选时</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>美观</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>不满</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>村</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>外</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>单机</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>短</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>后退</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>连续</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>段</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>一小</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>时会</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>分辨</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>名字</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>窗口</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>尴尬</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>比较</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>拉错</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>不行</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>关闭</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>数据网</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>明显提高</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>也就是说</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>观察</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>一段</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>具体表现</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>其新</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>障碍</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>一致性</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>外部</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>老头</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>签名</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>难</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>新人</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>几乎</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>详细信息</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>同名</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>调整</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>感觉</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>满意度</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>对话框</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>标识</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>最好</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>到底</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>分清</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>重名</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>有人</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>张</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>调试</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>进一步</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>方面</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>缩小</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>放大</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>选取</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>很快</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>来不及</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>替换</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>选栏</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>独特</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>一系列</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>个性化</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>拉</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>小伙伴</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>入群</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>前</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>信任</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>位</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>belinda</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>页</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>未修改</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>彩色</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>花朵</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>图案</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>多人</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>动态</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>导致系统</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>长度</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>超过</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>首次</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>提升</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>该长</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>写入</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>红米</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>noto</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>长</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>自带</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>约</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>秒钟</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>键</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>主</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>改过</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>改了</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>栏</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>东大</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>改为</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>测试者</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>变更</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>需求</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>即时</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>已改</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>包括</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>没有响应</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>匹配</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>公告</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>为空</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>真实</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>上传</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>公开</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>重现</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>匿名</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>;</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>某一</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>那位</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>其他人</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>去掉</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>没变</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>群内</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>接受</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>混乱</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>孙</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>特定</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>等待时间</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>稳定性</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>恢复</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>立即</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>应用软件</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>方便</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>考虑</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>决定</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>令人困惑</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>保持</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>潜在</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>突然</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>变为</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>相同</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>正在</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>恢复正常</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>虚拟机</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>想要</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>密码</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>一直</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>不到</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>好久</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>人性化</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>涉及</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>仅</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>习惯</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>额外</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>评价</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>值得注意</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>个人头像</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>用过</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>报告</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>曾经</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>配置</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>后续</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>开发</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>予以</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>解决</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>右侧</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>框以</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>选</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>自然</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>视觉效果</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>干扰</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>操作界面</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>信任度</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>速度</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>滞后</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>同一</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>同一时间</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>点</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>负面影响</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>屏幕</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>必然</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>每次</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>触发</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>这一</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>交流</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>闪现</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>已选</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
